--- a/cold_start_evaluation.xlsx
+++ b/cold_start_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,65 +461,80 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>NDCG@100</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>NDCG@-1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Precision@-1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Precision@1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Precision@5</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Precision@10</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Recall@-1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Recall@1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Recall@5</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Recall@10</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Recall@20</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Recall@50</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>F1@-1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>F1@1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>F1@5</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>F1@10</t>
         </is>
@@ -551,42 +566,51 @@
         <v>0.5487502813339233</v>
       </c>
       <c r="G2" t="n">
+        <v>0.5487502813339233</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.6077189445495605</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.6086956262588501</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.4018944501876831</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.1240866035223007</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.07151556015014648</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.1799729317426682</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.4018944501876831</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.6204330325126648</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.7151556015014648</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
+        <v>0.8078484535217285</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9228687286376953</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.2778067802635382</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>0.4018944501876831</v>
       </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>0.2068110066983435</v>
       </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
         <v>0.1300282911820845</v>
       </c>
     </row>
@@ -616,42 +640,51 @@
         <v>0.4986722469329834</v>
       </c>
       <c r="G3" t="n">
+        <v>0.4986722469329834</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.5659433007240295</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.01569758541882038</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.3545331656932831</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.1154262498021126</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.06617049872875214</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.898511528968811</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.3545331656932831</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.5771312713623047</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.6617050170898438</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
+        <v>0.758457362651825</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8755074143409729</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.03085609463701413</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>0.3545331656932831</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>0.1923770842452844</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
         <v>0.1203099981812406</v>
       </c>
     </row>
@@ -681,42 +714,51 @@
         <v>0.5127193331718445</v>
       </c>
       <c r="G4" t="n">
+        <v>0.5127193331718445</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5806446671485901</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.01752067916095257</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.3917455971240997</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.1140730753540993</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.06495264172554016</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.8612990379333496</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.3917455971240997</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.5703653693199158</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>0.6495263576507568</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
+        <v>0.7347767353057861</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.8592692613601685</v>
+      </c>
+      <c r="S4" t="n">
         <v>0.03434275269827165</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="T4" t="n">
         <v>0.3917455971240997</v>
       </c>
-      <c r="R4" t="n">
+      <c r="U4" t="n">
         <v>0.190121791842911</v>
       </c>
-      <c r="S4" t="n">
+      <c r="V4" t="n">
         <v>0.118095711243054</v>
       </c>
     </row>
@@ -746,42 +788,51 @@
         <v>0.4296394288539886</v>
       </c>
       <c r="G5" t="n">
+        <v>0.4296394288539886</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5028728246688843</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.01215747185051441</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.3100115656852722</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.09809853881597519</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.05656056478619576</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.7127849459648132</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.3100115656852722</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.4904927015304565</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.565605640411377</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
+        <v>0.6376720070838928</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.7363168597221375</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.02390717580618976</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="T5" t="n">
         <v>0.3100115656852722</v>
       </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>0.1634975651072131</v>
       </c>
-      <c r="S5" t="n">
+      <c r="V5" t="n">
         <v>0.1028373903972058</v>
       </c>
     </row>
@@ -811,42 +862,51 @@
         <v>0.3769335150718689</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4566498696804047</v>
+        <v>0.3770192563533783</v>
       </c>
       <c r="H6" t="n">
+        <v>0.4565915465354919</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.001729780109599233</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.2635781168937683</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.086185522377491</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.05088769644498825</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.9303498268127441</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.2635781168937683</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>0.4309276044368744</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>0.5088769793510437</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
+        <v>0.5816787481307983</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.6808488368988037</v>
+      </c>
+      <c r="S6" t="n">
         <v>0.003453139867963779</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="T6" t="n">
         <v>0.2635781168937683</v>
       </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
         <v>0.1436425368818972</v>
       </c>
-      <c r="S6" t="n">
+      <c r="V6" t="n">
         <v>0.09252308469173336</v>
       </c>
     </row>
@@ -876,42 +936,51 @@
         <v>0.3912366628646851</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4719840884208679</v>
+        <v>0.3912366628646851</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001713988487608731</v>
+        <v>0.4719838201999664</v>
       </c>
       <c r="I7" t="n">
+        <v>0.001713988836854696</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.2906818091869354</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.08803445845842361</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.05058304592967033</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.9364429116249084</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.2906818091869354</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>0.4401722848415375</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>0.5058304667472839</v>
       </c>
-      <c r="P7" t="n">
-        <v>0.003421714149595643</v>
-      </c>
       <c r="Q7" t="n">
+        <v>0.5794726610183716</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.6853660941123962</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.003421714845537652</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.2906818091869354</v>
       </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
         <v>0.1467240970167849</v>
       </c>
-      <c r="S7" t="n">
+      <c r="V7" t="n">
         <v>0.09196917454073252</v>
       </c>
     </row>
@@ -941,42 +1010,51 @@
         <v>0.4629150032997131</v>
       </c>
       <c r="G8" t="n">
+        <v>0.4629428088665009</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5300753116607666</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.01322655379772186</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.3409210741519928</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.105509914457798</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.05989296734333038</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.7067159414291382</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.3409210741519928</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0.5275495648384094</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>0.5989297032356262</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
+        <v>0.6665410399436951</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.7532976269721985</v>
+      </c>
+      <c r="S8" t="n">
         <v>0.02596711954355382</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="T8" t="n">
         <v>0.3409210741519928</v>
       </c>
-      <c r="R8" t="n">
+      <c r="U8" t="n">
         <v>0.1758498570157422</v>
       </c>
-      <c r="S8" t="n">
+      <c r="V8" t="n">
         <v>0.108896304753201</v>
       </c>
     </row>
@@ -1006,42 +1084,51 @@
         <v>0.4311913251876831</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5025523900985718</v>
+        <v>0.4311462938785553</v>
       </c>
       <c r="H9" t="n">
+        <v>0.5026552081108093</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.001461574342101812</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.3145398497581482</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.09842466562986374</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.05598854273557663</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.9412075281143188</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.3145398497581482</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>0.4921233057975769</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>0.5598854422569275</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
+        <v>0.6269691586494446</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.7186251878738403</v>
+      </c>
+      <c r="S9" t="n">
         <v>0.002918616447914297</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="T9" t="n">
         <v>0.3145398497581482</v>
       </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
         <v>0.1640411081413428</v>
       </c>
-      <c r="S9" t="n">
+      <c r="V9" t="n">
         <v>0.1017973506746213</v>
       </c>
     </row>
@@ -1071,42 +1158,51 @@
         <v>0.4046193659305573</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4795885384082794</v>
+        <v>0.4046749770641327</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001348585588857532</v>
+        <v>0.4795607626438141</v>
       </c>
       <c r="I10" t="n">
+        <v>0.001348586287349463</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.2944900989532471</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.09265093505382538</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.05273988097906113</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.9473128914833069</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0.2944900989532471</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>0.4632546901702881</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>0.5273988246917725</v>
       </c>
-      <c r="P10" t="n">
-        <v>0.00269333696891787</v>
-      </c>
       <c r="Q10" t="n">
+        <v>0.591166079044342</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.6791286468505859</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.002693338361932742</v>
+      </c>
+      <c r="T10" t="n">
         <v>0.2944900989532471</v>
       </c>
-      <c r="R10" t="n">
+      <c r="U10" t="n">
         <v>0.1544182259175512</v>
       </c>
-      <c r="S10" t="n">
+      <c r="V10" t="n">
         <v>0.09589069293550223</v>
       </c>
     </row>
@@ -1136,42 +1232,51 @@
         <v>0.3621993660926819</v>
       </c>
       <c r="G11" t="n">
+        <v>0.3621993660926819</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4440448582172394</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.00501817325130105</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.2644267380237579</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>0.08210323750972748</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0.04760321974754333</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>0.7126266360282898</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.2644267380237579</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>0.4105162024497986</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>0.4760321974754333</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
+        <v>0.5423091053962708</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.6431460380554199</v>
+      </c>
+      <c r="S11" t="n">
         <v>0.009966166763392804</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="T11" t="n">
         <v>0.2644267380237579</v>
       </c>
-      <c r="R11" t="n">
+      <c r="U11" t="n">
         <v>0.1368387300107214</v>
       </c>
-      <c r="S11" t="n">
+      <c r="V11" t="n">
         <v>0.08655130863189697</v>
       </c>
     </row>
@@ -1201,42 +1306,51 @@
         <v>0.3015949130058289</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3894596099853516</v>
+        <v>0.3015492260456085</v>
       </c>
       <c r="H12" t="n">
+        <v>0.3894898295402527</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.0006387668545357883</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.2128869444131851</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>0.06893596798181534</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.04049097001552582</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>0.9310399889945984</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>0.2128869444131851</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>0.3446798324584961</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>0.4049097001552582</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
+        <v>0.4696247577667236</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.5616114735603333</v>
+      </c>
+      <c r="S12" t="n">
         <v>0.001276657821128674</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="T12" t="n">
         <v>0.2128869444131851</v>
       </c>
-      <c r="R12" t="n">
+      <c r="U12" t="n">
         <v>0.1148932795557711</v>
       </c>
-      <c r="S12" t="n">
+      <c r="V12" t="n">
         <v>0.07361994548277422</v>
       </c>
     </row>
@@ -1266,42 +1380,51 @@
         <v>0.3090266287326813</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3970150351524353</v>
+        <v>0.309006929397583</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0006528496742248535</v>
+        <v>0.3970293402671814</v>
       </c>
       <c r="I13" t="n">
+        <v>0.0006528497324325144</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.2218573540449142</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>0.07002522796392441</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0.0410916656255722</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>0.9511833786964417</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>0.2218573540449142</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>0.3501261472702026</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>0.410916656255722</v>
       </c>
-      <c r="P13" t="n">
-        <v>0.001304803789561672</v>
-      </c>
       <c r="Q13" t="n">
+        <v>0.4741900563240051</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.5676184296607971</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.001304803905817354</v>
+      </c>
+      <c r="T13" t="n">
         <v>0.2218573540449142</v>
       </c>
-      <c r="R13" t="n">
+      <c r="U13" t="n">
         <v>0.1167087136871285</v>
       </c>
-      <c r="S13" t="n">
+      <c r="V13" t="n">
         <v>0.07471211931922218</v>
       </c>
     </row>
@@ -1331,42 +1454,51 @@
         <v>0.5404081344604492</v>
       </c>
       <c r="G14" t="n">
-        <v>0.597736656665802</v>
+        <v>0.5403578281402588</v>
       </c>
       <c r="H14" t="n">
+        <v>0.5977569818496704</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.017516253516078</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.4230769276618958</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>0.1202715858817101</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>0.06691738218069077</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>0.7539843916893005</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>0.4230769276618958</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>0.6013579368591309</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>0.6691738367080688</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
+        <v>0.7359733581542969</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8152138590812683</v>
+      </c>
+      <c r="S14" t="n">
         <v>0.03423712432147054</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="T14" t="n">
         <v>0.4230769276618958</v>
       </c>
-      <c r="R14" t="n">
+      <c r="U14" t="n">
         <v>0.2004526435501046</v>
       </c>
-      <c r="S14" t="n">
+      <c r="V14" t="n">
         <v>0.1216679678475561</v>
       </c>
     </row>
@@ -1396,42 +1528,51 @@
         <v>0.493791788816452</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5572967529296875</v>
+        <v>0.4939922392368317</v>
       </c>
       <c r="H15" t="n">
+        <v>0.5571291446685791</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.001344641670584679</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.3811595439910889</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>0.1098959147930145</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>0.06208326667547226</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>0.9632866978645325</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>0.3811595439910889</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>0.549479603767395</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>0.6208326816558838</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
+        <v>0.6884046196937561</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.7685802578926086</v>
+      </c>
+      <c r="S15" t="n">
         <v>0.002685534631899463</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="T15" t="n">
         <v>0.3811595439910889</v>
       </c>
-      <c r="R15" t="n">
+      <c r="U15" t="n">
         <v>0.1831598596440421</v>
       </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
         <v>0.112878666928977</v>
       </c>
     </row>
@@ -1461,42 +1602,51 @@
         <v>0.5381349921226501</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5967581868171692</v>
+        <v>0.5380924344062805</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001431411947123706</v>
+        <v>0.5967154502868652</v>
       </c>
       <c r="I16" t="n">
+        <v>0.001431411365047097</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.4301105737686157</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>0.1184094995260239</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>0.06580338627099991</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>0.9714181423187256</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>0.4301105737686157</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>0.5920475125312805</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>0.6580338478088379</v>
       </c>
-      <c r="P16" t="n">
-        <v>0.00285861164960304</v>
-      </c>
       <c r="Q16" t="n">
+        <v>0.723694920539856</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8040331602096558</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.002858610488873078</v>
+      </c>
+      <c r="T16" t="n">
         <v>0.4301105737686157</v>
       </c>
-      <c r="R16" t="n">
+      <c r="U16" t="n">
         <v>0.1973491667045487</v>
       </c>
-      <c r="S16" t="n">
+      <c r="V16" t="n">
         <v>0.1196425202464269</v>
       </c>
     </row>
@@ -1526,42 +1676,51 @@
         <v>0.863430917263031</v>
       </c>
       <c r="G17" t="n">
+        <v>0.863430917263031</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.8715735673904419</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>0.3110889494419098</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0.7521246671676636</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>0.1867563724517822</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.09642351418733597</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>0.8831444978713989</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>0.7521246671676636</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>0.9337818622589111</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>0.9642351269721985</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
+        <v>0.9822946190834045</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.9975212216377258</v>
+      </c>
+      <c r="S17" t="n">
         <v>0.4601051740198647</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="T17" t="n">
         <v>0.7521246671676636</v>
       </c>
-      <c r="R17" t="n">
+      <c r="U17" t="n">
         <v>0.3112606207529704</v>
       </c>
-      <c r="S17" t="n">
+      <c r="V17" t="n">
         <v>0.1753154800943107</v>
       </c>
     </row>
@@ -1591,42 +1750,51 @@
         <v>0.8434010148048401</v>
       </c>
       <c r="G18" t="n">
+        <v>0.8434010148048401</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.8537104725837708</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0.05929999426007271</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0.7195467352867126</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>0.1839235126972198</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>0.0955028310418129</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>0.9851274490356445</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>0.7195467352867126</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>0.9196175932884216</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>0.9550283551216125</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
+        <v>0.9805240631103516</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.995396614074707</v>
+      </c>
+      <c r="S18" t="n">
         <v>0.1118661759574493</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="T18" t="n">
         <v>0.7195467352867126</v>
       </c>
-      <c r="R18" t="n">
+      <c r="U18" t="n">
         <v>0.3065391894843843</v>
       </c>
-      <c r="S18" t="n">
+      <c r="V18" t="n">
         <v>0.1736415117240149</v>
       </c>
     </row>
@@ -1656,42 +1824,51 @@
         <v>0.851318359375</v>
       </c>
       <c r="G19" t="n">
+        <v>0.851318359375</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.8624837398529053</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>0.05453208461403847</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.751770555973053</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>0.1831444799900055</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>0.09490084648132324</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>0.9716714024543762</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>0.751770555973053</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>0.9157223701477051</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>0.9490085244178772</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
+        <v>0.9716714024543762</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.9907932281494141</v>
+      </c>
+      <c r="S19" t="n">
         <v>0.1032685384592752</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="T19" t="n">
         <v>0.751770555973053</v>
       </c>
-      <c r="R19" t="n">
+      <c r="U19" t="n">
         <v>0.3052407983276579</v>
       </c>
-      <c r="S19" t="n">
+      <c r="V19" t="n">
         <v>0.1725469945876066</v>
       </c>
     </row>
@@ -1721,42 +1898,51 @@
         <v>0.8632424473762512</v>
       </c>
       <c r="G20" t="n">
+        <v>0.8632424473762512</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.8720211982727051</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>0.2961028516292572</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.7585877776145935</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>0.1846373975276947</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>0.09611164033412933</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>0.8790553212165833</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>0.7585877776145935</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>0.9231870174407959</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>0.9611164331436157</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
+        <v>0.9833015203475952</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.9947519302368164</v>
+      </c>
+      <c r="S20" t="n">
         <v>0.44298851570213</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="T20" t="n">
         <v>0.7585877776145935</v>
       </c>
-      <c r="R20" t="n">
+      <c r="U20" t="n">
         <v>0.3077289975351757</v>
       </c>
-      <c r="S20" t="n">
+      <c r="V20" t="n">
         <v>0.1747484374637446</v>
       </c>
     </row>
@@ -1786,42 +1972,51 @@
         <v>0.8445163369178772</v>
       </c>
       <c r="G21" t="n">
+        <v>0.8445163369178772</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.8556284308433533</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>0.03005078434944153</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0.7335400581359863</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>0.1827767193317413</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0.09494274854660034</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>0.989503800868988</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>0.7335400581359863</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>0.9138835668563843</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>0.9494274854660034</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
+        <v>0.9739980697631836</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.9918892979621887</v>
+      </c>
+      <c r="S21" t="n">
         <v>0.05833010956739738</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="T21" t="n">
         <v>0.7335400581359863</v>
       </c>
-      <c r="R21" t="n">
+      <c r="U21" t="n">
         <v>0.3046278638972176</v>
       </c>
-      <c r="S21" t="n">
+      <c r="V21" t="n">
         <v>0.172623179175637</v>
       </c>
     </row>
@@ -1851,42 +2046,51 @@
         <v>0.8615519404411316</v>
       </c>
       <c r="G22" t="n">
+        <v>0.8615519404411316</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.8732436299324036</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>0.03358826041221619</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0.7714694738388062</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>0.1835877895355225</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>0.09463263303041458</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>0.9785305261611938</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>0.7714694738388062</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>0.9179389476776123</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>0.9463263154029846</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
+        <v>0.9704198241233826</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.989980936050415</v>
+      </c>
+      <c r="S22" t="n">
         <v>0.06494719507238633</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="T22" t="n">
         <v>0.7714694738388062</v>
       </c>
-      <c r="R22" t="n">
+      <c r="U22" t="n">
         <v>0.3059796492258708</v>
       </c>
-      <c r="S22" t="n">
+      <c r="V22" t="n">
         <v>0.1720593325362718</v>
       </c>
     </row>
@@ -1916,42 +2120,51 @@
         <v>0.8978087902069092</v>
       </c>
       <c r="G23" t="n">
+        <v>0.8978087902069092</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.9031045436859131</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>0.4106164276599884</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.8052434325218201</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>0.1923595517873764</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>0.0978277176618576</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>0.8981273174285889</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>0.8052434325218201</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>0.9617977738380432</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>0.9782771468162537</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
+        <v>0.9940074682235718</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
         <v>0.5635722532395611</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="T23" t="n">
         <v>0.8052434325218201</v>
       </c>
-      <c r="R23" t="n">
+      <c r="U23" t="n">
         <v>0.3205992538068029</v>
       </c>
-      <c r="S23" t="n">
+      <c r="V23" t="n">
         <v>0.1778685770744134</v>
       </c>
     </row>
@@ -1981,42 +2194,51 @@
         <v>0.8827335834503174</v>
       </c>
       <c r="G24" t="n">
+        <v>0.8827335834503174</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.8891075849533081</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>0.07812035828828812</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0.7827715277671814</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>0.1899625509977341</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>0.09722846746444702</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>0.9850187301635742</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>0.7827715277671814</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>0.9498127102851868</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>0.9722846150398254</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
+        <v>0.987265944480896</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
         <v>0.1447600167408147</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="T24" t="n">
         <v>0.7827715277671814</v>
       </c>
-      <c r="R24" t="n">
+      <c r="U24" t="n">
         <v>0.3166042491793631</v>
       </c>
-      <c r="S24" t="n">
+      <c r="V24" t="n">
         <v>0.1767790307683393</v>
       </c>
     </row>
@@ -2046,42 +2268,51 @@
         <v>0.8903207182884216</v>
       </c>
       <c r="G25" t="n">
+        <v>0.8903207182884216</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.896961510181427</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>0.08900558948516846</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0.7940074801445007</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>0.1904119849205017</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>0.09722846746444702</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>0.9775280952453613</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>0.7940074801445007</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>0.9520599246025085</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>0.9722846150398254</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
+        <v>0.9925093650817871</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
         <v>0.1631555863659572</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="T25" t="n">
         <v>0.7940074801445007</v>
       </c>
-      <c r="R25" t="n">
+      <c r="U25" t="n">
         <v>0.3173533082008362</v>
       </c>
-      <c r="S25" t="n">
+      <c r="V25" t="n">
         <v>0.1767790307683393</v>
       </c>
     </row>
@@ -2111,42 +2342,51 @@
         <v>0.8555131554603577</v>
       </c>
       <c r="G26" t="n">
+        <v>0.8555131554603577</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.8623622059822083</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>0.3662438094615936</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>0.7207147479057312</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>0.1876902729272842</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>0.09708802402019501</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>0.8788881301879883</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>0.7207147479057312</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>0.93845134973526</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>0.9708802103996277</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
+        <v>0.9894109964370728</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.9993382096290588</v>
+      </c>
+      <c r="S26" t="n">
         <v>0.5170332984650844</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="T26" t="n">
         <v>0.7207147479057312</v>
       </c>
-      <c r="R26" t="n">
+      <c r="U26" t="n">
         <v>0.3128171207176315</v>
       </c>
-      <c r="S26" t="n">
+      <c r="V26" t="n">
         <v>0.1765236795441178</v>
       </c>
     </row>
@@ -2176,42 +2416,51 @@
         <v>0.8398264646530151</v>
       </c>
       <c r="G27" t="n">
+        <v>0.8398264646530151</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.8489276170730591</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>0.048063013702631</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>0.6995367407798767</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>0.1850430220365524</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>0.09602911770343781</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>0.9894109964370728</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>0.6995367407798767</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>0.9252150654792786</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>0.9602912068367004</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
+        <v>0.9814692139625549</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.9960291385650635</v>
+      </c>
+      <c r="S27" t="n">
         <v>0.09167280108132116</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="T27" t="n">
         <v>0.6995367407798767</v>
       </c>
-      <c r="R27" t="n">
+      <c r="U27" t="n">
         <v>0.3084050342440604</v>
       </c>
-      <c r="S27" t="n">
+      <c r="V27" t="n">
         <v>0.1745983963170327</v>
       </c>
     </row>
@@ -2241,42 +2490,51 @@
         <v>0.8665432333946228</v>
       </c>
       <c r="G28" t="n">
+        <v>0.8665432333946228</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.874167263507843</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>0.05719223991036415</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>0.7491727471351624</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>0.1892786175012589</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>0.09675711393356323</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>0.9854401350021362</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>0.7491727471351624</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>0.9463931322097778</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>0.9675711393356323</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
+        <v>0.9880873560905457</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.9986763596534729</v>
+      </c>
+      <c r="S28" t="n">
         <v>0.1081100682742057</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="T28" t="n">
         <v>0.7491727471351624</v>
       </c>
-      <c r="R28" t="n">
+      <c r="U28" t="n">
         <v>0.3154643649856249</v>
       </c>
-      <c r="S28" t="n">
+      <c r="V28" t="n">
         <v>0.1759220253337513</v>
       </c>
     </row>
@@ -2306,42 +2564,51 @@
         <v>0.8796757459640503</v>
       </c>
       <c r="G29" t="n">
+        <v>0.8796757459640503</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.8849142789840698</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>0.8495886921882629</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>0.773789644241333</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>0.1894824653863907</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>0.09774624556303024</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>0.6035058498382568</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>0.773789644241333</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>0.947412371635437</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>0.9774624109268188</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
+        <v>0.9916527271270752</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.9983305335044861</v>
+      </c>
+      <c r="S29" t="n">
         <v>0.7057100978123324</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="T29" t="n">
         <v>0.773789644241333</v>
       </c>
-      <c r="R29" t="n">
+      <c r="U29" t="n">
         <v>0.3158041114608446</v>
       </c>
-      <c r="S29" t="n">
+      <c r="V29" t="n">
         <v>0.1777204457393362</v>
       </c>
     </row>
@@ -2371,42 +2638,51 @@
         <v>0.8607905507087708</v>
       </c>
       <c r="G30" t="n">
+        <v>0.8607905507087708</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.8686776161193848</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>0.05381125211715698</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>0.7487478852272034</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>0.18564273416996</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>0.09666109830141068</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>0.9899833202362061</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>0.7487478852272034</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>0.9282137155532837</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>0.9666110277175903</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
+        <v>0.9874791502952576</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.9991652965545654</v>
+      </c>
+      <c r="S30" t="n">
         <v>0.1020741886344587</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="T30" t="n">
         <v>0.7487478852272034</v>
       </c>
-      <c r="R30" t="n">
+      <c r="U30" t="n">
         <v>0.3094045594334601</v>
       </c>
-      <c r="S30" t="n">
+      <c r="V30" t="n">
         <v>0.1757474521960108</v>
       </c>
     </row>
@@ -2436,42 +2712,51 @@
         <v>0.8783471584320068</v>
       </c>
       <c r="G31" t="n">
+        <v>0.8783471584320068</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.8853449821472168</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>0.06504110246896744</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>0.783806324005127</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>0.1888146847486496</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>0.09682804346084595</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>0.9774624109268188</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>0.783806324005127</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>0.9440734386444092</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>0.9682804942131042</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
+        <v>0.9816360473632812</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.9958263635635376</v>
+      </c>
+      <c r="S31" t="n">
         <v>0.1219664624852326</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="T31" t="n">
         <v>0.783806324005127</v>
       </c>
-      <c r="R31" t="n">
+      <c r="U31" t="n">
         <v>0.3146911420755916</v>
       </c>
-      <c r="S31" t="n">
+      <c r="V31" t="n">
         <v>0.1760509890958297</v>
       </c>
     </row>
@@ -2501,42 +2786,51 @@
         <v>0.4743793308734894</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5400012731552124</v>
+        <v>0.4743316173553467</v>
       </c>
       <c r="H32" t="n">
+        <v>0.5400434136390686</v>
+      </c>
+      <c r="I32" t="n">
         <v>0.01820840872824192</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>0.3264500200748444</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>0.1097617819905281</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>0.06392413377761841</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>0.7817840576171875</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>0.3264500200748444</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>0.5488089323043823</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>0.6392413377761841</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
+        <v>0.7200284600257874</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.8169989585876465</v>
+      </c>
+      <c r="S32" t="n">
         <v>0.03558794427989181</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="T32" t="n">
         <v>0.3264500200748444</v>
       </c>
-      <c r="R32" t="n">
+      <c r="U32" t="n">
         <v>0.1829363045593102</v>
       </c>
-      <c r="S32" t="n">
+      <c r="V32" t="n">
         <v>0.116225697777488</v>
       </c>
     </row>
@@ -2566,42 +2860,51 @@
         <v>0.3977154195308685</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4757006168365479</v>
+        <v>0.397742748260498</v>
       </c>
       <c r="H33" t="n">
+        <v>0.4756378829479218</v>
+      </c>
+      <c r="I33" t="n">
         <v>0.004092472139745951</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>0.2621051371097565</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>0.09338425844907761</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>0.05541170388460159</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>0.9115743041038513</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>0.2621051371097565</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>0.4669212698936462</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>0.5541170239448547</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
+        <v>0.6444846987724304</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7477990388870239</v>
+      </c>
+      <c r="S33" t="n">
         <v>0.008148362569531201</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="T33" t="n">
         <v>0.2621051371097565</v>
       </c>
-      <c r="R33" t="n">
+      <c r="U33" t="n">
         <v>0.1556404295066992</v>
       </c>
-      <c r="S33" t="n">
+      <c r="V33" t="n">
         <v>0.1007485522711573</v>
       </c>
     </row>
@@ -2631,42 +2934,51 @@
         <v>0.03477214649319649</v>
       </c>
       <c r="G34" t="n">
+        <v>0.03477214649319649</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.1713878214359283</v>
       </c>
-      <c r="H34" t="n">
-        <v>0.003146168310195208</v>
-      </c>
       <c r="I34" t="n">
+        <v>0.003146167146041989</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.002589331939816475</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>0.01165199372917414</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>0.007955722510814667</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>0.5113283395767212</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>0.002589331939816475</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>0.05825996771454811</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>0.07955722510814667</v>
       </c>
-      <c r="P34" t="n">
-        <v>0.006253857065487951</v>
-      </c>
       <c r="Q34" t="n">
+        <v>0.1562661826610565</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.2751165330410004</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.006253854765571043</v>
+      </c>
+      <c r="T34" t="n">
         <v>0.002589331939816475</v>
       </c>
-      <c r="R34" t="n">
+      <c r="U34" t="n">
         <v>0.01941998949688342</v>
       </c>
-      <c r="S34" t="n">
+      <c r="V34" t="n">
         <v>0.01446495001966303</v>
       </c>
     </row>
@@ -2696,42 +3008,51 @@
         <v>0.4503375291824341</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5220789313316345</v>
+        <v>0.4503375291824341</v>
       </c>
       <c r="H35" t="n">
+        <v>0.5221027731895447</v>
+      </c>
+      <c r="I35" t="n">
         <v>0.009427666664123535</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>0.3405047059059143</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>0.101481631398201</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>0.05709356442093849</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>0.7502875328063965</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>0.3405047059059143</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>0.5074081420898438</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>0.5709356665611267</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
+        <v>0.6355456113815308</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.7309383749961853</v>
+      </c>
+      <c r="S35" t="n">
         <v>0.01862134854344411</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="T35" t="n">
         <v>0.3405047059059143</v>
       </c>
-      <c r="R35" t="n">
+      <c r="U35" t="n">
         <v>0.1691360515024927</v>
       </c>
-      <c r="S35" t="n">
+      <c r="V35" t="n">
         <v>0.103806481134793</v>
       </c>
     </row>
@@ -2761,42 +3082,51 @@
         <v>0.369112640619278</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4522349834442139</v>
+        <v>0.3688860535621643</v>
       </c>
       <c r="H36" t="n">
+        <v>0.452143132686615</v>
+      </c>
+      <c r="I36" t="n">
         <v>0.002188540762290359</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>0.2698734998703003</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>0.08379676938056946</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>0.04779784753918648</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>0.9070428013801575</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>0.2698734998703003</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>0.4189838171005249</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>0.4779784977436066</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
+        <v>0.5419795513153076</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.6427846550941467</v>
+      </c>
+      <c r="S36" t="n">
         <v>0.004366545788632767</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="T36" t="n">
         <v>0.2698734998703003</v>
       </c>
-      <c r="R36" t="n">
+      <c r="U36" t="n">
         <v>0.1396612806452644</v>
       </c>
-      <c r="S36" t="n">
+      <c r="V36" t="n">
         <v>0.08690517771342568</v>
       </c>
     </row>
@@ -2826,42 +3156,51 @@
         <v>0.05204468220472336</v>
       </c>
       <c r="G37" t="n">
+        <v>0.05204468220472336</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.1787467151880264</v>
       </c>
-      <c r="H37" t="n">
-        <v>0.002202598378062248</v>
-      </c>
       <c r="I37" t="n">
+        <v>0.002202597912400961</v>
+      </c>
+      <c r="J37" t="n">
         <v>0.01860496588051319</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>0.01305730361491442</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>0.009593397378921509</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>0.5649144053459167</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>0.01860496588051319</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>0.06528651714324951</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>0.09593396633863449</v>
       </c>
-      <c r="P37" t="n">
-        <v>0.004388087624911059</v>
-      </c>
       <c r="Q37" t="n">
+        <v>0.145456999540329</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.2477504909038544</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.004388086700808673</v>
+      </c>
+      <c r="T37" t="n">
         <v>0.01860496588051319</v>
       </c>
-      <c r="R37" t="n">
+      <c r="U37" t="n">
         <v>0.02176217263978389</v>
       </c>
-      <c r="S37" t="n">
+      <c r="V37" t="n">
         <v>0.0174425405657981</v>
       </c>
     </row>

--- a/cold_start_evaluation.xlsx
+++ b/cold_start_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,82 +461,92 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>NDCG@50</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>NDCG@100</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>NDCG@-1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Precision@-1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Precision@1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Precision@5</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Precision@10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Recall@-1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Recall@1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Recall@5</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Recall@10</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Recall@20</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Recall@50</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>F1@-1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>F1@1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>F1@5</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>F1@10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>cold_items</t>
         </is>
       </c>
     </row>
@@ -566,52 +576,58 @@
         <v>0.5487502813339233</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5487502813339233</v>
+        <v>0.5955169200897217</v>
       </c>
       <c r="H2" t="n">
+        <v>0.60479736328125</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.6077189445495605</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.6086956262588501</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.4018944501876831</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.1240866035223007</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.07151556015014648</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.1799729317426682</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.4018944501876831</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.6204330325126648</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.7151556015014648</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.8078484535217285</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.9228687286376953</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.2778067802635382</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.4018944501876831</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.2068110066983435</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>0.1300282911820845</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1478</v>
       </c>
     </row>
     <row r="3">
@@ -640,52 +656,58 @@
         <v>0.4986722469329834</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4986722469329834</v>
+        <v>0.5464461445808411</v>
       </c>
       <c r="H3" t="n">
+        <v>0.5597942471504211</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.5659433007240295</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.01569758541882038</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.3545331656932831</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.1154262498021126</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.06617049872875214</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.898511528968811</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.3545331656932831</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.5771312713623047</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.6617050170898438</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.758457362651825</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.8755074143409729</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.03085609463701413</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.3545331656932831</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.1923770842452844</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.1203099981812406</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1478</v>
       </c>
     </row>
     <row r="4">
@@ -714,52 +736,58 @@
         <v>0.5127193331718445</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5127193331718445</v>
+        <v>0.558810293674469</v>
       </c>
       <c r="H4" t="n">
+        <v>0.5726749300956726</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.5806446671485901</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.01752067916095257</v>
-      </c>
       <c r="J4" t="n">
+        <v>0.01752092130482197</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.3917455971240997</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.1140730753540993</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.06495264172554016</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.8612990379333496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.3917455971240997</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>0.5703653693199158</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>0.6495263576507568</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>0.7347767353057861</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.8592692613601685</v>
       </c>
-      <c r="S4" t="n">
-        <v>0.03434275269827165</v>
-      </c>
       <c r="T4" t="n">
+        <v>0.03434321786826715</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.3917455971240997</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>0.190121791842911</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>0.118095711243054</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1478</v>
       </c>
     </row>
     <row r="5">
@@ -788,52 +816,58 @@
         <v>0.4296394288539886</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4296394288539886</v>
+        <v>0.4674527943134308</v>
       </c>
       <c r="H5" t="n">
+        <v>0.4792613685131073</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.5028728246688843</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.01215747185051441</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.3100115656852722</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.09809853881597519</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.05656056478619576</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.7127849459648132</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.3100115656852722</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.4904927015304565</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.565605640411377</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.6376720070838928</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.7363168597221375</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.02390717580618976</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.3100115656852722</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0.1634975651072131</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.1028373903972058</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9519</v>
       </c>
     </row>
     <row r="6">
@@ -862,52 +896,58 @@
         <v>0.3769335150718689</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3770192563533783</v>
+        <v>0.4151023328304291</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4565915465354919</v>
+        <v>0.4267883896827698</v>
       </c>
       <c r="I6" t="n">
+        <v>0.4565388560295105</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.001729780109599233</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.2635781168937683</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.086185522377491</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.05088769644498825</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.9303498268127441</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>0.2635781168937683</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>0.4309276044368744</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.5088769793510437</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>0.5816787481307983</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.6808488368988037</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.003453139867963779</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>0.2635781168937683</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>0.1436425368818972</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>0.09252308469173336</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9519</v>
       </c>
     </row>
     <row r="7">
@@ -936,52 +976,58 @@
         <v>0.3912366628646851</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3912366628646851</v>
+        <v>0.4308649301528931</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4719838201999664</v>
+        <v>0.4426378607749939</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001713988836854696</v>
+        <v>0.4719844460487366</v>
       </c>
       <c r="J7" t="n">
+        <v>0.001713989186100662</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.2906818091869354</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.08803445845842361</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.05058304592967033</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.9364429116249084</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>0.2906818091869354</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>0.4401722848415375</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.5058304667472839</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>0.5794726610183716</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0.6853660941123962</v>
       </c>
-      <c r="S7" t="n">
-        <v>0.003421714845537652</v>
-      </c>
       <c r="T7" t="n">
+        <v>0.00342171554147966</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.2906818091869354</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>0.1467240970167849</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.09196917454073252</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9519</v>
       </c>
     </row>
     <row r="8">
@@ -1010,52 +1056,58 @@
         <v>0.4629150032997131</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4629428088665009</v>
+        <v>0.4973664879798889</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5300753116607666</v>
+        <v>0.5078356266021729</v>
       </c>
       <c r="I8" t="n">
+        <v>0.5300474762916565</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.01322655379772186</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.3409210741519928</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.105509914457798</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.05989296734333038</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.7067159414291382</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0.3409210741519928</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>0.5275495648384094</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.5989297032356262</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>0.6665410399436951</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.7532976269721985</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.02596711954355382</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>0.3409210741519928</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>0.1758498570157422</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>0.108896304753201</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13267</v>
       </c>
     </row>
     <row r="9">
@@ -1084,52 +1136,58 @@
         <v>0.4311913251876831</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4311462938785553</v>
+        <v>0.4663099646568298</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5026552081108093</v>
+        <v>0.4768416881561279</v>
       </c>
       <c r="I9" t="n">
+        <v>0.5025291442871094</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.001461574342101812</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.3145398497581482</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.09842466562986374</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.05598854273557663</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.9412075281143188</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>0.3145398497581482</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>0.4921233057975769</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0.5598854422569275</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>0.6269691586494446</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.7186251878738403</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>0.002918616447914297</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>0.3145398497581482</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>0.1640411081413428</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>0.1017973506746213</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13267</v>
       </c>
     </row>
     <row r="10">
@@ -1158,52 +1216,58 @@
         <v>0.4046193659305573</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4046749770641327</v>
+        <v>0.4382403492927551</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4795607626438141</v>
+        <v>0.4494611024856567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001348586287349463</v>
+        <v>0.4795607030391693</v>
       </c>
       <c r="J10" t="n">
+        <v>0.001348585006780922</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.2944900989532471</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.09265093505382538</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.05273988097906113</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0.9473128914833069</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>0.2944900989532471</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>0.4632546901702881</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>0.5273988246917725</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>0.591166079044342</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0.6791286468505859</v>
       </c>
-      <c r="S10" t="n">
-        <v>0.002693338361932742</v>
-      </c>
       <c r="T10" t="n">
+        <v>0.002693335808072141</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.2944900989532471</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>0.1544182259175512</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>0.09589069293550223</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13267</v>
       </c>
     </row>
     <row r="11">
@@ -1232,52 +1296,58 @@
         <v>0.3621993660926819</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3621993660926819</v>
+        <v>0.3989661335945129</v>
       </c>
       <c r="H11" t="n">
+        <v>0.4104858934879303</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.4440448582172394</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.00501817325130105</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>0.2644267380237579</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0.08210323750972748</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>0.04760321974754333</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.7126266360282898</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>0.2644267380237579</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>0.4105162024497986</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>0.4760321974754333</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>0.5423091053962708</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>0.6431460380554199</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>0.009966166763392804</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>0.2644267380237579</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>0.1368387300107214</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>0.08655130863189697</v>
+      </c>
+      <c r="X11" t="n">
+        <v>24971</v>
       </c>
     </row>
     <row r="12">
@@ -1306,52 +1376,58 @@
         <v>0.3015949130058289</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3015492260456085</v>
+        <v>0.3362649381160736</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3894898295402527</v>
+        <v>0.3481711745262146</v>
       </c>
       <c r="I12" t="n">
+        <v>0.3894929885864258</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.0006387668545357883</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>0.2128869444131851</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.06893596798181534</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>0.04049097001552582</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>0.9310399889945984</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>0.2128869444131851</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>0.3446798324584961</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>0.4049097001552582</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>0.4696247577667236</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>0.5616114735603333</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>0.001276657821128674</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>0.2128869444131851</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>0.1148932795557711</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>0.07361994548277422</v>
+      </c>
+      <c r="X12" t="n">
+        <v>24971</v>
       </c>
     </row>
     <row r="13">
@@ -1380,52 +1456,58 @@
         <v>0.3090266287326813</v>
       </c>
       <c r="G13" t="n">
-        <v>0.309006929397583</v>
+        <v>0.343598872423172</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3970293402671814</v>
+        <v>0.3560976088047028</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0006528497324325144</v>
+        <v>0.3970302939414978</v>
       </c>
       <c r="J13" t="n">
+        <v>0.0006528496160171926</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.2218573540449142</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0.07002522796392441</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>0.0410916656255722</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>0.9511833786964417</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>0.2218573540449142</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>0.3501261472702026</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>0.410916656255722</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>0.4741900563240051</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>0.5676184296607971</v>
       </c>
-      <c r="S13" t="n">
-        <v>0.001304803905817354</v>
-      </c>
       <c r="T13" t="n">
+        <v>0.00130480367330599</v>
+      </c>
+      <c r="U13" t="n">
         <v>0.2218573540449142</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>0.1167087136871285</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>0.07471211931922218</v>
+      </c>
+      <c r="X13" t="n">
+        <v>24971</v>
       </c>
     </row>
     <row r="14">
@@ -1454,52 +1536,58 @@
         <v>0.5404081344604492</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5403578281402588</v>
+        <v>0.5730141401290894</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5977569818496704</v>
+        <v>0.5813714861869812</v>
       </c>
       <c r="I14" t="n">
+        <v>0.5977516770362854</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.017516253516078</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>0.4230769276618958</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>0.1202715858817101</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>0.06691738218069077</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>0.7539843916893005</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>0.4230769276618958</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>0.6013579368591309</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>0.6691738367080688</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>0.7359733581542969</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>0.8152138590812683</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>0.03423712432147054</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>0.4230769276618958</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>0.2004526435501046</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>0.1216679678475561</v>
+      </c>
+      <c r="X14" t="n">
+        <v>24596</v>
       </c>
     </row>
     <row r="15">
@@ -1528,52 +1616,58 @@
         <v>0.493791788816452</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4939922392368317</v>
+        <v>0.527155339717865</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5571291446685791</v>
+        <v>0.5362198352813721</v>
       </c>
       <c r="I15" t="n">
+        <v>0.5571824908256531</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.001344641670584679</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>0.3811595439910889</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>0.1098959147930145</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>0.06208326667547226</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>0.9632866978645325</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>0.3811595439910889</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>0.549479603767395</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>0.6208326816558838</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>0.6884046196937561</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>0.7685802578926086</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>0.002685534631899463</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>0.3811595439910889</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>0.1831598596440421</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>0.112878666928977</v>
+      </c>
+      <c r="X15" t="n">
+        <v>24596</v>
       </c>
     </row>
     <row r="16">
@@ -1596,58 +1690,64 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.4298666417598724</v>
+        <v>0.4299072921276093</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5381349921226501</v>
+        <v>0.5381499528884888</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5380924344062805</v>
+        <v>0.5707140564918518</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5967154502868652</v>
+        <v>0.5791844129562378</v>
       </c>
       <c r="I16" t="n">
+        <v>0.5967398285865784</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.001431411365047097</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.4301105737686157</v>
-      </c>
       <c r="K16" t="n">
+        <v>0.4301512539386749</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.1184094995260239</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>0.06580338627099991</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>0.9714181423187256</v>
       </c>
-      <c r="N16" t="n">
-        <v>0.4301105737686157</v>
-      </c>
       <c r="O16" t="n">
+        <v>0.4301512539386749</v>
+      </c>
+      <c r="P16" t="n">
         <v>0.5920475125312805</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>0.6580338478088379</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>0.723694920539856</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>0.8040331602096558</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>0.002858610488873078</v>
       </c>
-      <c r="T16" t="n">
-        <v>0.4301105737686157</v>
-      </c>
       <c r="U16" t="n">
+        <v>0.4301512539386749</v>
+      </c>
+      <c r="V16" t="n">
         <v>0.1973491667045487</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>0.1196425202464269</v>
+      </c>
+      <c r="X16" t="n">
+        <v>24596</v>
       </c>
     </row>
     <row r="17">
@@ -1676,52 +1776,58 @@
         <v>0.863430917263031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.863430917263031</v>
+        <v>0.871158242225647</v>
       </c>
       <c r="H17" t="n">
         <v>0.8715735673904419</v>
       </c>
       <c r="I17" t="n">
+        <v>0.8715735673904419</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.3110889494419098</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>0.7521246671676636</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.1867563724517822</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>0.09642351418733597</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>0.8831444978713989</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>0.7521246671676636</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>0.9337818622589111</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>0.9642351269721985</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>0.9822946190834045</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>0.9975212216377258</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>0.4601051740198647</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>0.7521246671676636</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>0.3112606207529704</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>0.1753154800943107</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2824</v>
       </c>
     </row>
     <row r="18">
@@ -1750,52 +1856,58 @@
         <v>0.8434010148048401</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8434010148048401</v>
+        <v>0.8529478907585144</v>
       </c>
       <c r="H18" t="n">
         <v>0.8537104725837708</v>
       </c>
       <c r="I18" t="n">
+        <v>0.8537104725837708</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.05929999426007271</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>0.7195467352867126</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>0.1839235126972198</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>0.0955028310418129</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>0.9851274490356445</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>0.7195467352867126</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>0.9196175932884216</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>0.9550283551216125</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>0.9805240631103516</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>0.995396614074707</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>0.1118661759574493</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>0.7195467352867126</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>0.3065391894843843</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>0.1736415117240149</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2824</v>
       </c>
     </row>
     <row r="19">
@@ -1824,52 +1936,58 @@
         <v>0.851318359375</v>
       </c>
       <c r="G19" t="n">
-        <v>0.851318359375</v>
+        <v>0.8609784841537476</v>
       </c>
       <c r="H19" t="n">
         <v>0.8624837398529053</v>
       </c>
       <c r="I19" t="n">
+        <v>0.8624837398529053</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.05453208461403847</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>0.751770555973053</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>0.1831444799900055</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>0.09490084648132324</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>0.9716714024543762</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>0.751770555973053</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>0.9157223701477051</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>0.9490085244178772</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>0.9716714024543762</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>0.9907932281494141</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>0.1032685384592752</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>0.751770555973053</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>0.3052407983276579</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>0.1725469945876066</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2824</v>
       </c>
     </row>
     <row r="20">
@@ -1898,52 +2016,58 @@
         <v>0.8632424473762512</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8632424473762512</v>
+        <v>0.8711798191070557</v>
       </c>
       <c r="H20" t="n">
+        <v>0.8718818426132202</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.8720211982727051</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.2961028516292572</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>0.7585877776145935</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>0.1846373975276947</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>0.09611164033412933</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>0.8790553212165833</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>0.7585877776145935</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>0.9231870174407959</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>0.9611164331436157</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>0.9833015203475952</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>0.9947519302368164</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>0.44298851570213</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>0.7585877776145935</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>0.3077289975351757</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>0.1747484374637446</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4192</v>
       </c>
     </row>
     <row r="21">
@@ -1972,52 +2096,58 @@
         <v>0.8445163369178772</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8445163369178772</v>
+        <v>0.8543394804000854</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8556284308433533</v>
+        <v>0.8553159236907959</v>
       </c>
       <c r="I21" t="n">
+        <v>0.8555404543876648</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.03005078434944153</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>0.7335400581359863</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0.1827767193317413</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>0.09494274854660034</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>0.989503800868988</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>0.7335400581359863</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>0.9138835668563843</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>0.9494274854660034</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>0.9739980697631836</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>0.9918892979621887</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>0.05833010956739738</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>0.7335400581359863</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>0.3046278638972176</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>0.172623179175637</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4192</v>
       </c>
     </row>
     <row r="22">
@@ -2046,52 +2176,58 @@
         <v>0.8615519404411316</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8615519404411316</v>
+        <v>0.8716765642166138</v>
       </c>
       <c r="H22" t="n">
+        <v>0.8727958202362061</v>
+      </c>
+      <c r="I22" t="n">
         <v>0.8732436299324036</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0.03358826041221619</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>0.7714694738388062</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>0.1835877895355225</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>0.09463263303041458</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>0.9785305261611938</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>0.7714694738388062</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>0.9179389476776123</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>0.9463263154029846</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>0.9704198241233826</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>0.989980936050415</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>0.06494719507238633</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>0.7714694738388062</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>0.3059796492258708</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>0.1720593325362718</v>
+      </c>
+      <c r="X22" t="n">
+        <v>4192</v>
       </c>
     </row>
     <row r="23">
@@ -2120,52 +2256,58 @@
         <v>0.8978087902069092</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8978087902069092</v>
+        <v>0.9031045436859131</v>
       </c>
       <c r="H23" t="n">
         <v>0.9031045436859131</v>
       </c>
       <c r="I23" t="n">
+        <v>0.9031045436859131</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.4106164276599884</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>0.8052434325218201</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>0.1923595517873764</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>0.0978277176618576</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>0.8981273174285889</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>0.8052434325218201</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>0.9617977738380432</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>0.9782771468162537</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>0.9940074682235718</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>1</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>0.5635722532395611</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>0.8052434325218201</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>0.3205992538068029</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>0.1778685770744134</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1335</v>
       </c>
     </row>
     <row r="24">
@@ -2194,52 +2336,58 @@
         <v>0.8827335834503174</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8827335834503174</v>
+        <v>0.8891075849533081</v>
       </c>
       <c r="H24" t="n">
         <v>0.8891075849533081</v>
       </c>
       <c r="I24" t="n">
+        <v>0.8891075849533081</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.07812035828828812</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>0.7827715277671814</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>0.1899625509977341</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>0.09722846746444702</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>0.9850187301635742</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>0.7827715277671814</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>0.9498127102851868</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>0.9722846150398254</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>0.987265944480896</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>1</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>0.1447600167408147</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>0.7827715277671814</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>0.3166042491793631</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>0.1767790307683393</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1335</v>
       </c>
     </row>
     <row r="25">
@@ -2268,52 +2416,58 @@
         <v>0.8903207182884216</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8903207182884216</v>
+        <v>0.896961510181427</v>
       </c>
       <c r="H25" t="n">
         <v>0.896961510181427</v>
       </c>
       <c r="I25" t="n">
+        <v>0.896961510181427</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.08900558948516846</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>0.7940074801445007</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>0.1904119849205017</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>0.09722846746444702</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>0.9775280952453613</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>0.7940074801445007</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>0.9520599246025085</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>0.9722846150398254</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>0.9925093650817871</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>1</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>0.1631555863659572</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>0.7940074801445007</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>0.3173533082008362</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>0.1767790307683393</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1335</v>
       </c>
     </row>
     <row r="26">
@@ -2342,52 +2496,58 @@
         <v>0.8555131554603577</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8555131554603577</v>
+        <v>0.8622527122497559</v>
       </c>
       <c r="H26" t="n">
         <v>0.8623622059822083</v>
       </c>
       <c r="I26" t="n">
+        <v>0.8623622059822083</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.3662438094615936</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>0.7207147479057312</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>0.1876902729272842</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>0.09708802402019501</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>0.8788881301879883</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>0.7207147479057312</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>0.93845134973526</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>0.9708802103996277</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>0.9894109964370728</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>0.9993382096290588</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>0.5170332984650844</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>0.7207147479057312</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>0.3128171207176315</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>0.1765236795441178</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1511</v>
       </c>
     </row>
     <row r="27">
@@ -2416,52 +2576,58 @@
         <v>0.8398264646530151</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8398264646530151</v>
+        <v>0.8482481837272644</v>
       </c>
       <c r="H27" t="n">
         <v>0.8489276170730591</v>
       </c>
       <c r="I27" t="n">
+        <v>0.8489276170730591</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.048063013702631</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>0.6995367407798767</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>0.1850430220365524</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>0.09602911770343781</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>0.9894109964370728</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>0.6995367407798767</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>0.9252150654792786</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>0.9602912068367004</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>0.9814692139625549</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>0.9960291385650635</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>0.09167280108132116</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>0.6995367407798767</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>0.3084050342440604</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>0.1745983963170327</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1511</v>
       </c>
     </row>
     <row r="28">
@@ -2490,52 +2656,58 @@
         <v>0.8665432333946228</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8665432333946228</v>
+        <v>0.8739550709724426</v>
       </c>
       <c r="H28" t="n">
         <v>0.874167263507843</v>
       </c>
       <c r="I28" t="n">
+        <v>0.874167263507843</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.05719223991036415</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>0.7491727471351624</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>0.1892786175012589</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>0.09675711393356323</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>0.9854401350021362</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>0.7491727471351624</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>0.9463931322097778</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>0.9675711393356323</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>0.9880873560905457</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>0.9986763596534729</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>0.1081100682742057</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>0.7491727471351624</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>0.3154643649856249</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>0.1759220253337513</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1511</v>
       </c>
     </row>
     <row r="29">
@@ -2564,52 +2736,58 @@
         <v>0.8796757459640503</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8796757459640503</v>
+        <v>0.8846281766891479</v>
       </c>
       <c r="H29" t="n">
         <v>0.8849142789840698</v>
       </c>
       <c r="I29" t="n">
+        <v>0.8849142789840698</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.8495886921882629</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>0.773789644241333</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>0.1894824653863907</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>0.09774624556303024</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>0.6035058498382568</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>0.773789644241333</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>0.947412371635437</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>0.9774624109268188</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>0.9916527271270752</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>0.9983305335044861</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>0.7057100978123324</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>0.773789644241333</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>0.3158041114608446</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>0.1777204457393362</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1198</v>
       </c>
     </row>
     <row r="30">
@@ -2638,52 +2816,58 @@
         <v>0.8607905507087708</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8607905507087708</v>
+        <v>0.868538498878479</v>
       </c>
       <c r="H30" t="n">
         <v>0.8686776161193848</v>
       </c>
       <c r="I30" t="n">
+        <v>0.8686776161193848</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.05381125211715698</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>0.7487478852272034</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>0.18564273416996</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>0.09666109830141068</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>0.9899833202362061</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>0.7487478852272034</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>0.9282137155532837</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>0.9666110277175903</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>0.9874791502952576</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>0.9991652965545654</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>0.1020741886344587</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>0.7487478852272034</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>0.3094045594334601</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>0.1757474521960108</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1198</v>
       </c>
     </row>
     <row r="31">
@@ -2712,52 +2896,58 @@
         <v>0.8783471584320068</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8783471584320068</v>
+        <v>0.8846321702003479</v>
       </c>
       <c r="H31" t="n">
         <v>0.8853449821472168</v>
       </c>
       <c r="I31" t="n">
+        <v>0.8853449821472168</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.06504110246896744</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>0.783806324005127</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>0.1888146847486496</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>0.09682804346084595</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>0.9774624109268188</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>0.783806324005127</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>0.9440734386444092</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>0.9682804942131042</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>0.9816360473632812</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>0.9958263635635376</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>0.1219664624852326</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>0.783806324005127</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>0.3146911420755916</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>0.1760509890958297</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1198</v>
       </c>
     </row>
     <row r="32">
@@ -2786,52 +2976,58 @@
         <v>0.4743793308734894</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4743316173553467</v>
+        <v>0.5141505002975464</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5400434136390686</v>
+        <v>0.5248575210571289</v>
       </c>
       <c r="I32" t="n">
+        <v>0.5400202870368958</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.01820840872824192</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>0.3264500200748444</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>0.1097617819905281</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>0.06392413377761841</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>0.7817840576171875</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>0.3264500200748444</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>0.5488089323043823</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>0.6392413377761841</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>0.7200284600257874</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>0.8169989585876465</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>0.03558794427989181</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>0.3264500200748444</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>0.1829363045593102</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>0.116225697777488</v>
+      </c>
+      <c r="X32" t="n">
+        <v>15448</v>
       </c>
     </row>
     <row r="33">
@@ -2860,52 +3056,58 @@
         <v>0.3977154195308685</v>
       </c>
       <c r="G33" t="n">
-        <v>0.397742748260498</v>
+        <v>0.4413008391857147</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4756378829479218</v>
+        <v>0.4524253904819489</v>
       </c>
       <c r="I33" t="n">
+        <v>0.4755223989486694</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.004092472139745951</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>0.2621051371097565</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>0.09338425844907761</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>0.05541170388460159</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>0.9115743041038513</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>0.2621051371097565</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>0.4669212698936462</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>0.5541170239448547</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>0.6444846987724304</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>0.7477990388870239</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>0.008148362569531201</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>0.2621051371097565</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>0.1556404295066992</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>0.1007485522711573</v>
+      </c>
+      <c r="X33" t="n">
+        <v>15448</v>
       </c>
     </row>
     <row r="34">
@@ -2934,52 +3136,58 @@
         <v>0.03477214649319649</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03477214649319649</v>
+        <v>0.07732092589139938</v>
       </c>
       <c r="H34" t="n">
+        <v>0.09817037731409073</v>
+      </c>
+      <c r="I34" t="n">
         <v>0.1713878214359283</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>0.003146167146041989</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>0.002589331939816475</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>0.01165199372917414</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>0.007955722510814667</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>0.5113283395767212</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>0.002589331939816475</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>0.05825996771454811</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>0.07955722510814667</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>0.1562661826610565</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>0.2751165330410004</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>0.006253854765571043</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>0.002589331939816475</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>0.01941998949688342</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>0.01446495001966303</v>
+      </c>
+      <c r="X34" t="n">
+        <v>15448</v>
       </c>
     </row>
     <row r="35">
@@ -3008,52 +3216,58 @@
         <v>0.4503375291824341</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4503375291824341</v>
+        <v>0.4855276644229889</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5221027731895447</v>
+        <v>0.4977468252182007</v>
       </c>
       <c r="I35" t="n">
+        <v>0.5220801830291748</v>
+      </c>
+      <c r="J35" t="n">
         <v>0.009427666664123535</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>0.3405047059059143</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>0.101481631398201</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>0.05709356442093849</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>0.7502875328063965</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>0.3405047059059143</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>0.5074081420898438</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>0.5709356665611267</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>0.6355456113815308</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>0.7309383749961853</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>0.01862134854344411</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>0.3405047059059143</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>0.1691360515024927</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>0.103806481134793</v>
+      </c>
+      <c r="X35" t="n">
+        <v>14781</v>
       </c>
     </row>
     <row r="36">
@@ -3082,52 +3296,58 @@
         <v>0.369112640619278</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3688860535621643</v>
+        <v>0.405072420835495</v>
       </c>
       <c r="H36" t="n">
-        <v>0.452143132686615</v>
+        <v>0.4183240532875061</v>
       </c>
       <c r="I36" t="n">
+        <v>0.4523659348487854</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.002188540762290359</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>0.2698734998703003</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>0.08379676938056946</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>0.04779784753918648</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>0.9070428013801575</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>0.2698734998703003</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>0.4189838171005249</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>0.4779784977436066</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>0.5419795513153076</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>0.6427846550941467</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>0.004366545788632767</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>0.2698734998703003</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>0.1396612806452644</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>0.08690517771342568</v>
+      </c>
+      <c r="X36" t="n">
+        <v>14781</v>
       </c>
     </row>
     <row r="37">
@@ -3156,52 +3376,58 @@
         <v>0.05204468220472336</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05204468220472336</v>
+        <v>0.08452415466308594</v>
       </c>
       <c r="H37" t="n">
+        <v>0.1032442972064018</v>
+      </c>
+      <c r="I37" t="n">
         <v>0.1787467151880264</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>0.002202597912400961</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>0.01860496588051319</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>0.01305730361491442</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>0.009593397378921509</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>0.5649144053459167</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>0.01860496588051319</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>0.06528651714324951</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>0.09593396633863449</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>0.145456999540329</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>0.2477504909038544</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>0.004388086700808673</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>0.01860496588051319</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>0.02176217263978389</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>0.0174425405657981</v>
+      </c>
+      <c r="X37" t="n">
+        <v>14781</v>
       </c>
     </row>
   </sheetData>
